--- a/xls/equipStarConfig.xlsx
+++ b/xls/equipStarConfig.xlsx
@@ -1,18 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="60" windowWidth="27765" windowHeight="13590"/>
+    <workbookView xWindow="14880" yWindow="60" windowWidth="27765" windowHeight="13590"/>
   </bookViews>
   <sheets>
-    <sheet name="@突破" sheetId="1" r:id="rId1"/>
+    <sheet name="@装备进阶" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
@@ -23,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>pass[.][funcInt]</t>
   </si>
   <si>
@@ -100,51 +91,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>id[.!][funcStr]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101001_2</t>
+  </si>
+  <si>
+    <t>101001_3</t>
+  </si>
+  <si>
+    <t>101001_4</t>
+  </si>
+  <si>
+    <t>101001_5</t>
+  </si>
+  <si>
     <t>shoot[.][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id[.!][funcStr]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>101001_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>101001_2</t>
-  </si>
-  <si>
-    <t>101001_3</t>
-  </si>
-  <si>
-    <t>101001_4</t>
-  </si>
-  <si>
-    <t>101001_5</t>
-  </si>
-  <si>
-    <t>102013:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102013:2</t>
+    <t>装备ID_星级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>突破:EquipStarConfig</t>
+    <t>装备进阶:EquipStarConfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0:0</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>105001:2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>105001:2;105001:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +176,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,91 +223,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,14 +273,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -337,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,17 +559,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
@@ -602,274 +580,467 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9">
+        <v>100</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9">
+        <v>200</v>
+      </c>
+      <c r="D4" s="9">
+        <v>200</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9">
+        <v>300</v>
+      </c>
+      <c r="D5" s="9">
+        <v>300</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9">
+        <v>400</v>
+      </c>
+      <c r="D6" s="9">
+        <v>400</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4">
-        <v>300</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4">
-        <v>400</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="C7" s="9">
         <v>500</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>500</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15"/>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -883,12 +1054,12 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -896,7 +1067,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>

--- a/xls/equipStarConfig.xlsx
+++ b/xls/equipStarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="60" windowWidth="27765" windowHeight="13590"/>
+    <workbookView xWindow="14880" yWindow="90" windowWidth="27765" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="@装备进阶" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>pass[.][funcInt]</t>
   </si>
@@ -131,15 +131,94 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>105001:2;105001:1</t>
+    <t>105001:2;105002:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101002_2</t>
+  </si>
+  <si>
+    <t>101002_3</t>
+  </si>
+  <si>
+    <t>101002_4</t>
+  </si>
+  <si>
+    <t>101002_5</t>
+  </si>
+  <si>
+    <t>101003_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101003_2</t>
+  </si>
+  <si>
+    <t>101003_3</t>
+  </si>
+  <si>
+    <t>101003_4</t>
+  </si>
+  <si>
+    <t>101003_5</t>
+  </si>
+  <si>
+    <t>101004_2</t>
+  </si>
+  <si>
+    <t>101004_3</t>
+  </si>
+  <si>
+    <t>101004_4</t>
+  </si>
+  <si>
+    <t>101004_5</t>
+  </si>
+  <si>
+    <t>101005_2</t>
+  </si>
+  <si>
+    <t>101005_3</t>
+  </si>
+  <si>
+    <t>101005_4</t>
+  </si>
+  <si>
+    <t>101005_5</t>
+  </si>
+  <si>
+    <t>101001_6</t>
+  </si>
+  <si>
+    <t>101002_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101002_6</t>
+  </si>
+  <si>
+    <t>101003_6</t>
+  </si>
+  <si>
+    <t>101004_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101004_6</t>
+  </si>
+  <si>
+    <t>101005_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101005_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,21 +249,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -242,19 +306,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -559,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,466 +643,1156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9">
-        <v>100</v>
-      </c>
-      <c r="D3" s="9">
-        <v>100</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7"/>
+      <c r="C3" s="7">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="7">
         <v>200</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="7">
         <v>200</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="7">
         <v>300</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="7">
         <v>300</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="7">
         <v>400</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="7">
         <v>400</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="7">
         <v>500</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="7">
         <v>500</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7">
+        <v>200</v>
+      </c>
+      <c r="D11" s="7">
+        <v>200</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7">
+        <v>300</v>
+      </c>
+      <c r="D12" s="7">
+        <v>300</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7">
+        <v>400</v>
+      </c>
+      <c r="D13" s="7">
+        <v>400</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7">
+        <v>500</v>
+      </c>
+      <c r="D14" s="7">
+        <v>500</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7">
+        <v>100</v>
+      </c>
+      <c r="D15" s="7">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>100</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7">
+        <v>200</v>
+      </c>
+      <c r="D17" s="7">
+        <v>200</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7">
+        <v>300</v>
+      </c>
+      <c r="D18" s="7">
+        <v>300</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7">
+        <v>400</v>
+      </c>
+      <c r="D19" s="7">
+        <v>400</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7">
+        <v>500</v>
+      </c>
+      <c r="D20" s="7">
+        <v>500</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>100</v>
+      </c>
+      <c r="D22" s="7">
+        <v>100</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7">
+        <v>200</v>
+      </c>
+      <c r="D23" s="7">
+        <v>200</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7">
+        <v>300</v>
+      </c>
+      <c r="D24" s="7">
+        <v>300</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7">
+        <v>400</v>
+      </c>
+      <c r="D25" s="7">
+        <v>400</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="7">
+        <v>500</v>
+      </c>
+      <c r="D26" s="7">
+        <v>500</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="7">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7">
+        <v>100</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="7">
+        <v>100</v>
+      </c>
+      <c r="D28" s="7">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7">
+        <v>200</v>
+      </c>
+      <c r="D29" s="7">
+        <v>200</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7">
+        <v>300</v>
+      </c>
+      <c r="D30" s="7">
+        <v>300</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7">
+        <v>400</v>
+      </c>
+      <c r="D31" s="7">
+        <v>400</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="7">
+        <v>500</v>
+      </c>
+      <c r="D32" s="7">
+        <v>500</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/xls/equipStarConfig.xlsx
+++ b/xls/equipStarConfig.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
   <si>
-    <t>pass[.][funcInt]</t>
-  </si>
-  <si>
     <t>trick[.][funcInt]</t>
   </si>
   <si>
@@ -407,6 +404,10 @@
   </si>
   <si>
     <t>105001:2;105002:10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passBall[.][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +820,7 @@
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:B92"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
@@ -840,74 +841,74 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8">
         <v>44</v>
@@ -936,10 +937,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8">
         <v>68</v>
@@ -968,10 +969,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8">
         <v>104</v>
@@ -1000,10 +1001,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8">
         <v>176</v>
@@ -1032,10 +1033,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="8">
         <v>290</v>
@@ -1064,10 +1065,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -1096,10 +1097,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -1128,10 +1129,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8">
         <v>0</v>
@@ -1160,10 +1161,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -1192,10 +1193,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
@@ -1224,10 +1225,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
         <v>44</v>
@@ -1256,10 +1257,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="8">
         <v>60</v>
@@ -1288,10 +1289,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8">
         <v>84</v>
@@ -1320,10 +1321,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8">
         <v>132</v>
@@ -1352,10 +1353,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="8">
         <v>208</v>
@@ -1384,10 +1385,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -1416,10 +1417,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -1448,10 +1449,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -1480,10 +1481,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -1512,10 +1513,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -1544,10 +1545,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -1576,10 +1577,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -1608,10 +1609,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -1640,10 +1641,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
@@ -1672,10 +1673,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="8">
         <v>0</v>
@@ -1704,10 +1705,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="8">
         <v>66</v>
@@ -1736,10 +1737,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="8">
         <v>108</v>
@@ -1768,10 +1769,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="8">
         <v>198</v>
@@ -1800,10 +1801,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="8">
         <v>336</v>
@@ -1832,10 +1833,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="8">
         <v>0</v>
@@ -1864,10 +1865,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="8">
         <v>0</v>
@@ -1896,10 +1897,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="8">
         <v>0</v>
@@ -1928,10 +1929,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="8">
         <v>0</v>
@@ -1960,10 +1961,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="8">
         <v>66</v>
@@ -1992,10 +1993,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="8">
         <v>94</v>
@@ -2024,10 +2025,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="8">
         <v>154</v>
@@ -2056,10 +2057,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="8">
         <v>246</v>
@@ -2088,10 +2089,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="8">
         <v>0</v>
@@ -2120,10 +2121,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="8">
         <v>0</v>
@@ -2152,10 +2153,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
@@ -2184,10 +2185,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="8">
         <v>0</v>
@@ -2216,10 +2217,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="8">
         <v>0</v>
@@ -2248,10 +2249,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="8">
         <v>0</v>
@@ -2280,10 +2281,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="8">
         <v>0</v>
@@ -2312,10 +2313,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" s="8">
         <v>0</v>
@@ -2344,10 +2345,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="8">
         <v>88</v>
@@ -2376,10 +2377,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" s="8">
         <v>208</v>
@@ -2408,10 +2409,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="8">
         <v>388</v>
@@ -2440,10 +2441,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="8">
         <v>0</v>
@@ -2472,10 +2473,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="8">
         <v>0</v>
@@ -2504,10 +2505,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="8">
         <v>0</v>
@@ -2536,10 +2537,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="8">
         <v>88</v>
@@ -2568,10 +2569,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="8">
         <v>168</v>
@@ -2600,10 +2601,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="8">
         <v>288</v>
@@ -2632,10 +2633,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" s="8">
         <v>0</v>
@@ -2664,10 +2665,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="8">
         <v>0</v>
@@ -2696,10 +2697,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" s="8">
         <v>0</v>
@@ -2728,10 +2729,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" s="8">
         <v>0</v>
@@ -2760,10 +2761,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61" s="8">
         <v>0</v>
@@ -2792,10 +2793,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" s="8">
         <v>0</v>
@@ -2824,10 +2825,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" s="8">
         <v>110</v>
@@ -2856,10 +2857,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="8">
         <v>410</v>
@@ -2888,10 +2889,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="8">
         <v>0</v>
@@ -2920,10 +2921,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" s="8">
         <v>0</v>
@@ -2952,10 +2953,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="8">
         <v>110</v>
@@ -2984,10 +2985,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="8">
         <v>310</v>
@@ -3016,10 +3017,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" s="8">
         <v>0</v>
@@ -3048,10 +3049,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="8">
         <v>0</v>
@@ -3080,10 +3081,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C71" s="8">
         <v>0</v>
@@ -3112,10 +3113,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="8">
         <v>0</v>
@@ -3144,10 +3145,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73" s="8">
         <v>110</v>
@@ -3176,10 +3177,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="8">
         <v>410</v>
@@ -3208,10 +3209,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="8">
         <v>0</v>
@@ -3240,10 +3241,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="8">
         <v>0</v>
@@ -3272,10 +3273,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77" s="8">
         <v>110</v>
@@ -3304,10 +3305,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" s="8">
         <v>310</v>
@@ -3336,10 +3337,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="8">
         <v>0</v>
@@ -3368,10 +3369,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" s="8">
         <v>0</v>
@@ -3400,10 +3401,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" s="8">
         <v>0</v>
@@ -3432,10 +3433,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" s="8">
         <v>0</v>
@@ -3464,10 +3465,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="8">
         <v>110</v>
@@ -3496,10 +3497,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="8">
         <v>410</v>
@@ -3528,10 +3529,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="8">
         <v>0</v>
@@ -3560,10 +3561,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="8">
         <v>0</v>
@@ -3592,10 +3593,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C87" s="8">
         <v>110</v>
@@ -3624,10 +3625,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" s="8">
         <v>310</v>
@@ -3656,10 +3657,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C89" s="8">
         <v>0</v>
@@ -3688,10 +3689,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" s="8">
         <v>0</v>
@@ -3720,10 +3721,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" s="8">
         <v>0</v>
@@ -3752,10 +3753,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="8">
         <v>0</v>
@@ -3807,7 +3808,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
